--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3024.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3024.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17278827488837</v>
+        <v>1.47434401512146</v>
       </c>
       <c r="B1">
-        <v>1.928490931546466</v>
+        <v>1.450868487358093</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.735958576202393</v>
       </c>
       <c r="D1">
-        <v>2.098562902043751</v>
+        <v>1.648200631141663</v>
       </c>
       <c r="E1">
-        <v>1.200217487505299</v>
+        <v>0.9800604581832886</v>
       </c>
     </row>
   </sheetData>
